--- a/biology/Zoologie/Haetera_piera/Haetera_piera.xlsx
+++ b/biology/Zoologie/Haetera_piera/Haetera_piera.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve"> Haetera piera est une espèce de papillons de la famille des Nymphalidae et de la sous-famille des Satyrinae, tribu des Haeterini. Elle est l'espèce type pour le genre.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Haetera piera est un papillon aux ailes hyalines translucide nacré avec des veines marron et aux ailes postérieures une ligne submarginale de cercles hyalins cernés d'orange et marron dont deux contiennent des ocelles noirs pupillés de blanc, en position anale et à l'apex[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haetera piera est un papillon aux ailes hyalines translucide nacré avec des veines marron et aux ailes postérieures une ligne submarginale de cercles hyalins cernés d'orange et marron dont deux contiennent des ocelles noirs pupillés de blanc, en position anale et à l'apex.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa biologie n'était pas connue[2]. Elle l'est depuis les travaux de Constantino en 1993[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa biologie n'était pas connue. Elle l'est depuis les travaux de Constantino en 1993.
 </t>
         </is>
       </c>
@@ -573,11 +589,11 @@
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Haetera piera est présent en Guyane, en Guyana, au Surinam, en Colombie, en Équateur, en Bolivie au Pérou et au Brésil[3].
-Biotope
-Il réside dans les zones obscures de la forêt tropicale humide, dans le sous-bois[2],[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haetera piera est présent en Guyane, en Guyana, au Surinam, en Colombie, en Équateur, en Bolivie au Pérou et au Brésil.
 </t>
         </is>
       </c>
@@ -603,23 +619,167 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les zones obscures de la forêt tropicale humide, dans le sous-bois,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Haetera_piera</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Haetera piera a été décrit par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Papilio piera[4]
-Synonymie
-Papilio piera Linnaeus, 1758 - protonyme
-Noms vernaculaires
-Haetera piera se nomme Amber Phantom en anglais[2]
-Taxinomie
-Il existe 6 sous-espèces
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Haetera piera a été décrit par l'entomologiste suédois Carl von Linné en 1758, sous le nom initial de Papilio piera
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Haetera_piera</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Synonymie</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papilio piera Linnaeus, 1758 - protonyme
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Haetera_piera</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Haetera piera se nomme Amber Phantom en anglais
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Haetera_piera</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Il existe 6 sous-espèces
 Haetera piera piera (Linné)
 Haetera piera diaphana (Lucas, 1857)
 Synonymie pour cette sous-espèce
 Haetera hymenaea (C. &amp; R. Felder, 1867)
-Haetera piera negra (C. &amp; R. Felder, 1862) [5]
+Haetera piera negra (C. &amp; R. Felder, 1862) 
 Synonymie pour cette sous-espèce
 Haetera piera f. ecuadora (Brown, 1943)
 Haetera piera f. ecuadora f. pseudopiera (Brown, 1943)
@@ -628,38 +788,43 @@
 Haetera piera lesbia f. metathetica (Bryk, 1953)
 Haetera piera unocellata (Weymer, 1910)
 Haetera piera pakitza (Lamas, 1998)
-Haetera piera sanguinolenta (Salazar &amp; Constantino, 2007) en Colombie[6]</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Haetera_piera</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+Haetera piera sanguinolenta (Salazar &amp; Constantino, 2007) en Colombie</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Haetera_piera</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Haetera_piera</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Haetera piera et l'Homme</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Protection
-Pas de statut de protection particulier.
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier.
 </t>
         </is>
       </c>
